--- a/dataset/loan_player_data/DataXLSX_La Liga.xlsx
+++ b/dataset/loan_player_data/DataXLSX_La Liga.xlsx
@@ -509,12 +509,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>146</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>113</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -562,17 +562,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>180</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>131</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -615,12 +615,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>36</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>67'</t>
+          <t>69'</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -721,12 +721,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>68</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>60'</t>
+          <t>59'</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -827,12 +827,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>71'</t>
+          <t>73'</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -880,12 +880,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>66'</t>
+          <t>69'</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -933,12 +933,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -986,12 +986,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>47'</t>
+          <t>80'</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CA Osasuna</t>
+          <t>RCD Mallorca</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1054,17 +1054,17 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>79'</t>
+          <t>29'</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>2.45</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>CA Osasuna</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1092,32 +1092,32 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>52'</t>
+          <t>79'</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Real Zaragoza</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1135,42 +1135,42 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1,0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>45'</t>
+          <t>52'</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>0.9</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RCD Mallorca</t>
+          <t>Real Zaragoza</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1193,37 +1193,37 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>62'</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>29'</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>3.00</t>
         </is>
       </c>
     </row>
@@ -1357,12 +1357,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>79'</t>
+          <t>52'</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>78'</t>
+          <t>79'</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>77'</t>
+          <t>74'</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>70'</t>
+          <t>73'</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2788,17 +2788,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>199</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>147</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3795,7 +3795,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>226</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3805,12 +3805,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>75'</t>
+          <t>74'</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>16.80</t>
+          <t>13.80</t>
         </is>
       </c>
     </row>
@@ -5135,7 +5135,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>48'</t>
+          <t>44'</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -8088,22 +8088,22 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>136</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>116</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>79'</t>
+          <t>80'</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -9413,7 +9413,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -9519,12 +9519,12 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>86'</t>
+          <t>85'</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -10155,12 +10155,12 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>240</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>218</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -11109,12 +11109,12 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>296</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>250</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -11533,12 +11533,12 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>146</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>117</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -11904,12 +11904,12 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>80</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -11919,7 +11919,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>87'</t>
+          <t>88'</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>83'</t>
+          <t>84'</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -12434,7 +12434,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>94</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -12449,7 +12449,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>86'</t>
+          <t>87'</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -14501,12 +14501,12 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>164</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>133</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
@@ -14516,7 +14516,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>80'</t>
+          <t>81'</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -15561,12 +15561,12 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>286</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>232</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
@@ -15793,12 +15793,12 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>8.70</t>
+          <t>8.60</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>7.20</t>
         </is>
       </c>
     </row>
@@ -16689,7 +16689,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>87'</t>
+          <t>88'</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -17017,7 +17017,7 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>7.80</t>
         </is>
       </c>
     </row>
@@ -17325,7 +17325,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>86'</t>
+          <t>88'</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -17557,7 +17557,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Villarreal CF</t>
+          <t>Atlético de Madrid</t>
         </is>
       </c>
       <c r="C324" t="n">
@@ -17575,32 +17575,32 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>205</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>39</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>89'</t>
+          <t>81'</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>28.85</t>
+          <t>80.80</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>35.60</t>
+          <t>67.20</t>
         </is>
       </c>
     </row>
@@ -17610,7 +17610,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Cádiz CF</t>
+          <t>Villarreal CF</t>
         </is>
       </c>
       <c r="C325" t="n">
@@ -17628,32 +17628,32 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>273</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>227</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>73'</t>
+          <t>89'</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>28.85</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>35.60</t>
         </is>
       </c>
     </row>
@@ -17663,7 +17663,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Atlético de Madrid</t>
+          <t>Cádiz CF</t>
         </is>
       </c>
       <c r="C326" t="n">
@@ -17671,7 +17671,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -17681,32 +17681,32 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>206</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>150</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>81'</t>
+          <t>73'</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>78.50</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>65.40</t>
+          <t>5.35</t>
         </is>
       </c>
     </row>
